--- a/doc/系统测试用例 冷 (3).xlsx
+++ b/doc/系统测试用例 冷 (3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25254" windowHeight="10827" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12080" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="6" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="132">
   <si>
     <t>模式</t>
   </si>
@@ -521,6 +521,12 @@
     <t>开机</t>
   </si>
   <si>
+    <t>R1/0</t>
+  </si>
+  <si>
+    <t>R1/60</t>
+  </si>
+  <si>
     <t>关机</t>
   </si>
   <si>
@@ -558,12 +564,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>R1/0</t>
-  </si>
-  <si>
-    <t>R1/60</t>
   </si>
   <si>
     <t>R2/0</t>
@@ -1406,7 +1406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,15 +1484,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,18 +1870,18 @@
   <sheetPr/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.4587155963303" customWidth="1"/>
-    <col min="3" max="3" width="10.3761467889908" customWidth="1"/>
-    <col min="4" max="4" width="12.1100917431193" customWidth="1"/>
+    <col min="1" max="1" width="15.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="10.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1907,7 @@
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1933,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1968,15 +1959,15 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" ht="15.6" spans="1:19">
-      <c r="A4" s="37" t="s">
+    <row r="4" ht="16.5" spans="1:19">
+      <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -1993,17 +1984,17 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" ht="15.6" spans="1:19">
-      <c r="A5" s="37" t="s">
+    <row r="5" ht="16.5" spans="1:19">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2020,15 +2011,15 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" ht="15.6" spans="1:19">
-      <c r="A6" s="37"/>
+    <row r="6" ht="16.5" spans="1:19">
+      <c r="A6" s="34"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="16"/>
@@ -2047,15 +2038,15 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" ht="15.6" spans="1:19">
-      <c r="A7" s="37"/>
+    <row r="7" ht="16.5" spans="1:19">
+      <c r="A7" s="34"/>
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2072,7 +2063,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2087,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
         <v>16</v>
@@ -2124,7 +2115,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -2152,7 +2143,7 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -2180,7 +2171,7 @@
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
@@ -2208,7 +2199,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
@@ -2236,10 +2227,10 @@
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" ht="15.6" spans="1:21">
+    <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -2259,428 +2250,428 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
     </row>
-    <row r="15" ht="15.6" spans="1:21">
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:21">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:21">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:21">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-    </row>
-    <row r="19" ht="31.25" spans="1:21">
-      <c r="A19" s="41" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" ht="33" spans="1:21">
+      <c r="A19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-    </row>
-    <row r="20" ht="15.6" spans="1:17">
-      <c r="A20" s="41" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:17">
+      <c r="A20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="49"/>
-    </row>
-    <row r="21" ht="31.25" spans="1:17">
-      <c r="A21" s="41" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" ht="33" spans="1:17">
+      <c r="A21" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-    </row>
-    <row r="22" ht="15.6" spans="1:17">
-      <c r="A22" s="41" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:17">
+      <c r="A22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="49"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:17">
+      <c r="A23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="49"/>
-    </row>
-    <row r="24" ht="31.25" spans="1:17">
-      <c r="A24" s="41" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" ht="33" spans="1:17">
+      <c r="A24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="49"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:17">
-      <c r="A25" s="43" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:17">
+      <c r="A25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="46" t="s">
+      <c r="K28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="M28" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="L29" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="M29" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2709,30 +2700,30 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6330275229358" customWidth="1"/>
-    <col min="2" max="3" width="7.37614678899083" customWidth="1"/>
-    <col min="4" max="6" width="7.75229357798165" customWidth="1"/>
-    <col min="7" max="7" width="6.24770642201835" customWidth="1"/>
-    <col min="8" max="10" width="5.5045871559633" customWidth="1"/>
-    <col min="11" max="11" width="6.24770642201835" customWidth="1"/>
-    <col min="12" max="14" width="5.5045871559633" customWidth="1"/>
-    <col min="15" max="15" width="6.24770642201835" customWidth="1"/>
-    <col min="16" max="18" width="5.5045871559633" customWidth="1"/>
-    <col min="19" max="19" width="6.24770642201835" customWidth="1"/>
-    <col min="20" max="21" width="5.5045871559633" customWidth="1"/>
-    <col min="22" max="23" width="6.24770642201835" customWidth="1"/>
-    <col min="24" max="25" width="5.5045871559633" customWidth="1"/>
-    <col min="26" max="26" width="6.24770642201835" customWidth="1"/>
+    <col min="1" max="1" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="3" width="7.37272727272727" customWidth="1"/>
+    <col min="4" max="6" width="7.75454545454545" customWidth="1"/>
+    <col min="7" max="7" width="6.24545454545455" customWidth="1"/>
+    <col min="8" max="10" width="5.50909090909091" customWidth="1"/>
+    <col min="11" max="11" width="6.24545454545455" customWidth="1"/>
+    <col min="12" max="14" width="5.50909090909091" customWidth="1"/>
+    <col min="15" max="15" width="6.24545454545455" customWidth="1"/>
+    <col min="16" max="18" width="5.50909090909091" customWidth="1"/>
+    <col min="19" max="19" width="6.24545454545455" customWidth="1"/>
+    <col min="20" max="21" width="5.50909090909091" customWidth="1"/>
+    <col min="22" max="23" width="6.24545454545455" customWidth="1"/>
+    <col min="24" max="25" width="5.50909090909091" customWidth="1"/>
+    <col min="26" max="26" width="6.24545454545455" customWidth="1"/>
     <col min="28" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.3" spans="1:32">
+    <row r="1" ht="16.5" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2786,12 +2777,12 @@
       </c>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="32"/>
-    </row>
-    <row r="2" ht="16.3" spans="1:32">
+      <c r="AF1" s="29"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2864,7 +2855,7 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
     </row>
-    <row r="3" ht="15.6" spans="2:32">
+    <row r="3" ht="16.5" spans="2:32">
       <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
@@ -2902,7 +2893,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" ht="15.6" spans="1:32">
+    <row r="4" ht="16.5" spans="1:32">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -2913,7 +2904,9 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12">
+        <v>32</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -2933,13 +2926,15 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:32">
+      <c r="AB4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:32">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2954,15 +2949,21 @@
       <c r="F5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12">
+        <v>31</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14">
+        <v>28</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="25"/>
+      <c r="O5" s="25">
+        <v>30</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
@@ -2974,13 +2975,15 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:32">
+      <c r="AB5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:32">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -3003,7 +3006,9 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
+      <c r="S6" s="26">
+        <v>29</v>
+      </c>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
@@ -3011,13 +3016,13 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:32">
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:32">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -3046,17 +3051,19 @@
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="14">
+        <v>35</v>
+      </c>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:32">
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:32">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -3087,13 +3094,13 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:32">
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:32">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -3124,19 +3131,19 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-    </row>
-    <row r="10" ht="15.6" spans="1:32">
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:32">
       <c r="A10" s="11">
         <v>6</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3161,13 +3168,13 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-    </row>
-    <row r="11" ht="15.6" spans="1:32">
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:32">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -3200,13 +3207,13 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:32">
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:32">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3235,13 +3242,13 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:32">
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:32">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3251,7 +3258,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
@@ -3274,13 +3281,13 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:32">
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:32">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -3309,13 +3316,13 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:32">
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:32">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -3346,13 +3353,13 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:32">
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:32">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -3383,13 +3390,13 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:32">
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:32">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3418,22 +3425,22 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:32">
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:32">
       <c r="A18" s="11">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3457,13 +3464,13 @@
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:32">
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:32">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3472,7 +3479,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="12"/>
@@ -3494,19 +3501,19 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-    </row>
-    <row r="20" ht="15.6" spans="1:32">
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:32">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3531,13 +3538,13 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:32">
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:32">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -3568,13 +3575,13 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-    </row>
-    <row r="22" ht="15.6" spans="1:32">
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:32">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -3584,7 +3591,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="16"/>
       <c r="E22" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
@@ -3607,13 +3614,13 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:32">
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:32">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -3644,13 +3651,13 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-    </row>
-    <row r="24" ht="15.6" spans="1:32">
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:32">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -3681,13 +3688,13 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:32">
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:32">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -3716,20 +3723,20 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-    </row>
-    <row r="26" ht="15.6" spans="1:32">
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="11">
         <v>22</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -3753,13 +3760,13 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-    </row>
-    <row r="27" ht="15.6" spans="1:32">
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -3768,7 +3775,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -3790,18 +3797,18 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-    </row>
-    <row r="28" ht="15.6" spans="1:32">
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="11">
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3827,23 +3834,23 @@
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-    </row>
-    <row r="29" ht="15.6" spans="1:32">
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="11">
         <v>25</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
@@ -3866,15 +3873,15 @@
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:32">
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3901,11 +3908,11 @@
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3937,46 +3944,46 @@
   <sheetPr/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.72477064220184" customWidth="1"/>
-    <col min="2" max="6" width="5.47706422018349" customWidth="1"/>
-    <col min="7" max="7" width="6.24770642201835" customWidth="1"/>
-    <col min="8" max="11" width="5.5045871559633" customWidth="1"/>
-    <col min="12" max="12" width="6.24770642201835" customWidth="1"/>
-    <col min="13" max="16" width="5.5045871559633" customWidth="1"/>
-    <col min="17" max="17" width="6.24770642201835" customWidth="1"/>
-    <col min="18" max="21" width="5.5045871559633" customWidth="1"/>
-    <col min="22" max="22" width="6.24770642201835" customWidth="1"/>
-    <col min="23" max="24" width="5.5045871559633" customWidth="1"/>
-    <col min="25" max="27" width="6.24770642201835" customWidth="1"/>
-    <col min="28" max="29" width="5.5045871559633" customWidth="1"/>
-    <col min="30" max="31" width="6.24770642201835" customWidth="1"/>
+    <col min="1" max="1" width="4.72727272727273" customWidth="1"/>
+    <col min="2" max="6" width="5.47272727272727" customWidth="1"/>
+    <col min="7" max="7" width="6.24545454545455" customWidth="1"/>
+    <col min="8" max="11" width="5.50909090909091" customWidth="1"/>
+    <col min="12" max="12" width="6.24545454545455" customWidth="1"/>
+    <col min="13" max="16" width="5.50909090909091" customWidth="1"/>
+    <col min="17" max="17" width="6.24545454545455" customWidth="1"/>
+    <col min="18" max="21" width="5.50909090909091" customWidth="1"/>
+    <col min="22" max="22" width="6.24545454545455" customWidth="1"/>
+    <col min="23" max="24" width="5.50909090909091" customWidth="1"/>
+    <col min="25" max="27" width="6.24545454545455" customWidth="1"/>
+    <col min="28" max="29" width="5.50909090909091" customWidth="1"/>
+    <col min="30" max="31" width="6.24545454545455" customWidth="1"/>
     <col min="33" max="37" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.3" spans="1:37">
+    <row r="1" customFormat="1" ht="16.5" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>80</v>
@@ -4012,18 +4019,18 @@
       <c r="AB1" s="17"/>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
-      <c r="AE1" s="29"/>
+      <c r="AE1" s="17"/>
       <c r="AG1" s="12" t="s">
         <v>85</v>
       </c>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="32"/>
-    </row>
-    <row r="2" customFormat="1" ht="16.3" spans="1:37">
+      <c r="AK1" s="29"/>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:37">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4043,7 +4050,7 @@
         <v>89</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>87</v>
@@ -4058,7 +4065,7 @@
         <v>89</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>87</v>
@@ -4073,7 +4080,7 @@
         <v>89</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V2" s="24" t="s">
         <v>87</v>
@@ -4088,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="Z2" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AA2" s="18" t="s">
         <v>87</v>
@@ -4102,8 +4109,8 @@
       <c r="AD2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="30" t="s">
-        <v>105</v>
+      <c r="AE2" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
@@ -4111,7 +4118,7 @@
       <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
     </row>
-    <row r="3" customFormat="1" ht="15.6" spans="2:37">
+    <row r="3" customFormat="1" ht="16.5" spans="2:37">
       <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
@@ -4145,7 +4152,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" s="31"/>
+      <c r="AE3" s="14"/>
       <c r="AG3" s="10" t="s">
         <v>92</v>
       </c>
@@ -4154,7 +4161,7 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
     </row>
-    <row r="4" customFormat="1" ht="15.6" spans="1:37">
+    <row r="4" customFormat="1" ht="16.5" spans="1:37">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -4172,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -4199,16 +4206,16 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE4" s="14"/>
+      <c r="AG4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+    </row>
+    <row r="5" customFormat="1" ht="16.5" spans="1:37">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -4239,7 +4246,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" s="14">
         <v>0</v>
@@ -4261,18 +4268,18 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
-      <c r="AE5" s="31"/>
-      <c r="AG5" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AE5" s="14"/>
+      <c r="AG5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH5" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:37">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -4303,7 +4310,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O6" s="14">
         <v>1</v>
@@ -4316,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T6" s="25">
         <v>0</v>
@@ -4333,20 +4340,20 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AE6" s="14"/>
+      <c r="AG6" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AH6" s="33" t="s">
+      <c r="AH6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-    </row>
-    <row r="7" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:37">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" s="12">
         <v>3</v>
@@ -4377,7 +4384,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O7" s="14">
         <v>2</v>
@@ -4390,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T7" s="25">
         <v>1</v>
@@ -4405,22 +4412,22 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="31"/>
-      <c r="AG7" s="33" t="s">
+      <c r="AE7" s="14"/>
+      <c r="AG7" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="AH7" s="33" t="s">
+      <c r="AH7" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AI7" s="33" t="s">
+      <c r="AI7" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="34" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AK7" s="34"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AK7" s="31"/>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:37">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -4438,7 +4445,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" s="12">
         <v>4</v>
@@ -4451,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O8" s="14">
         <v>3</v>
@@ -4464,7 +4471,7 @@
         <v>25</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T8" s="25">
         <v>2</v>
@@ -4479,24 +4486,24 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
-      <c r="AE8" s="31"/>
-      <c r="AG8" s="33" t="s">
+      <c r="AE8" s="14"/>
+      <c r="AG8" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AH8" s="33" t="s">
+      <c r="AH8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15.6" spans="1:37">
+    <row r="9" customFormat="1" ht="16.5" spans="1:37">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -4512,7 +4519,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J9" s="12">
         <v>5</v>
@@ -4525,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O9" s="14">
         <v>4</v>
@@ -4538,7 +4545,7 @@
         <v>25</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T9" s="25">
         <v>3</v>
@@ -4551,7 +4558,7 @@
         <v>25</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="26">
         <v>0</v>
@@ -4561,22 +4568,22 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="31"/>
-      <c r="AG9" s="33" t="s">
+      <c r="AE9" s="14"/>
+      <c r="AG9" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AH9" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="AI9" s="33" t="s">
+      <c r="AI9" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AJ9" s="34" t="s">
+      <c r="AJ9" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AK9" s="34"/>
-    </row>
-    <row r="10" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AK9" s="31"/>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:37">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J10" s="12">
         <v>5</v>
@@ -4605,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O10" s="14">
         <v>5</v>
@@ -4618,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T10" s="25">
         <v>4</v>
@@ -4631,7 +4638,7 @@
         <v>25</v>
       </c>
       <c r="X10" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="26">
         <v>1</v>
@@ -4644,25 +4651,25 @@
         <v>25</v>
       </c>
       <c r="AC10" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD10" s="26">
         <v>0</v>
       </c>
       <c r="AE10" s="26"/>
-      <c r="AG10" s="33" t="s">
+      <c r="AG10" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AH10" s="33" t="s">
+      <c r="AH10" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AI10" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:37">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -4678,7 +4685,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J11" s="12">
         <v>5</v>
@@ -4691,7 +4698,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O11" s="14">
         <v>5</v>
@@ -4704,7 +4711,7 @@
         <v>25</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T11" s="25">
         <v>5</v>
@@ -4717,7 +4724,7 @@
         <v>25</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="26">
         <v>2</v>
@@ -4730,25 +4737,25 @@
         <v>25</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD11" s="14">
         <v>1</v>
       </c>
-      <c r="AE11" s="31"/>
-      <c r="AG11" s="33" t="s">
+      <c r="AE11" s="14"/>
+      <c r="AG11" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AH11" s="33" t="s">
+      <c r="AH11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AI11" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-    </row>
-    <row r="12" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AI11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:37">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="12">
         <v>6</v>
@@ -4777,7 +4784,7 @@
         <v>25</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O12" s="14">
         <v>5</v>
@@ -4790,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T12" s="25">
         <v>5</v>
@@ -4803,7 +4810,7 @@
         <v>25</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="26">
         <v>3</v>
@@ -4816,25 +4823,25 @@
         <v>25</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD12" s="14">
         <v>2</v>
       </c>
-      <c r="AE12" s="31"/>
-      <c r="AG12" s="33" t="s">
+      <c r="AE12" s="14"/>
+      <c r="AG12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH12" s="33" t="s">
+      <c r="AH12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AI12" s="33" t="s">
+      <c r="AI12" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-    </row>
-    <row r="13" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:37">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -4850,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" s="12">
         <v>6</v>
@@ -4863,7 +4870,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O13" s="14">
         <v>6</v>
@@ -4876,7 +4883,7 @@
         <v>25</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T13" s="25">
         <v>5</v>
@@ -4889,7 +4896,7 @@
         <v>25</v>
       </c>
       <c r="X13" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y13" s="26">
         <v>4</v>
@@ -4902,25 +4909,25 @@
         <v>25</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD13" s="14">
         <v>3</v>
       </c>
-      <c r="AE13" s="31"/>
-      <c r="AG13" s="33" t="s">
+      <c r="AE13" s="14"/>
+      <c r="AG13" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="AH13" s="33" t="s">
+      <c r="AH13" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="AI13" s="33" t="s">
+      <c r="AI13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-    </row>
-    <row r="14" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:37">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -4936,7 +4943,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" s="12">
         <v>6</v>
@@ -4949,7 +4956,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O14" s="14">
         <v>6</v>
@@ -4962,7 +4969,7 @@
         <v>25</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T14" s="25">
         <v>6</v>
@@ -4975,7 +4982,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="26">
         <v>5</v>
@@ -4988,23 +4995,23 @@
         <v>25</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD14" s="14">
         <v>4</v>
       </c>
-      <c r="AE14" s="31"/>
-      <c r="AG14" s="33" t="s">
+      <c r="AE14" s="14"/>
+      <c r="AG14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AH14" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-    </row>
-    <row r="15" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AH14" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:37">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" s="12">
         <v>7</v>
@@ -5033,7 +5040,7 @@
         <v>25</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O15" s="14">
         <v>6</v>
@@ -5046,7 +5053,7 @@
         <v>25</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T15" s="25">
         <v>6</v>
@@ -5059,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="X15" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="26">
         <v>5</v>
@@ -5072,21 +5079,21 @@
         <v>25</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD15" s="14">
         <v>5</v>
       </c>
-      <c r="AE15" s="31"/>
-      <c r="AG15" s="33" t="s">
+      <c r="AE15" s="14"/>
+      <c r="AG15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-    </row>
-    <row r="16" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:37">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -5102,7 +5109,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J16" s="12">
         <v>7</v>
@@ -5115,7 +5122,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O16" s="14">
         <v>7</v>
@@ -5128,7 +5135,7 @@
         <v>25</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T16" s="25">
         <v>6</v>
@@ -5141,7 +5148,7 @@
         <v>25</v>
       </c>
       <c r="X16" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="26">
         <v>5</v>
@@ -5154,23 +5161,23 @@
         <v>25</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD16" s="14">
         <v>5</v>
       </c>
-      <c r="AE16" s="31"/>
-      <c r="AG16" s="33" t="s">
+      <c r="AE16" s="14"/>
+      <c r="AG16" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" s="33" t="s">
+      <c r="AH16" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-    </row>
-    <row r="17" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+    </row>
+    <row r="17" customFormat="1" ht="16.5" spans="1:37">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -5186,7 +5193,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J17" s="12">
         <v>7</v>
@@ -5199,7 +5206,7 @@
         <v>25</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O17" s="14">
         <v>7</v>
@@ -5212,7 +5219,7 @@
         <v>25</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T17" s="25">
         <v>7</v>
@@ -5225,7 +5232,7 @@
         <v>25</v>
       </c>
       <c r="X17" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y17" s="26">
         <v>5</v>
@@ -5238,23 +5245,23 @@
         <v>25</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD17" s="14">
         <v>5</v>
       </c>
-      <c r="AE17" s="31"/>
-      <c r="AG17" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH17" s="33" t="s">
+      <c r="AE17" s="14"/>
+      <c r="AG17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH17" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-    </row>
-    <row r="18" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+    </row>
+    <row r="18" customFormat="1" ht="16.5" spans="1:37">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -5287,14 +5294,14 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
-      <c r="AE18" s="31"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-    </row>
-    <row r="19" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE18" s="14"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+    </row>
+    <row r="19" customFormat="1" ht="16.5" spans="1:37">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -5327,14 +5334,14 @@
       <c r="AB19" s="19"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="31"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-    </row>
-    <row r="20" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE19" s="14"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+    </row>
+    <row r="20" customFormat="1" ht="16.5" spans="1:37">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -5367,14 +5374,14 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="31"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-    </row>
-    <row r="21" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE20" s="14"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+    </row>
+    <row r="21" customFormat="1" ht="16.5" spans="1:37">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -5407,14 +5414,14 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="31"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-    </row>
-    <row r="22" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE21" s="14"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+    </row>
+    <row r="22" customFormat="1" ht="16.5" spans="1:37">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -5447,14 +5454,14 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
-      <c r="AE22" s="31"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-    </row>
-    <row r="23" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE22" s="14"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+    </row>
+    <row r="23" customFormat="1" ht="16.5" spans="1:37">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -5487,14 +5494,14 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
-      <c r="AE23" s="31"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-    </row>
-    <row r="24" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE23" s="14"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+    </row>
+    <row r="24" customFormat="1" ht="16.5" spans="1:37">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -5527,14 +5534,14 @@
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-      <c r="AE24" s="31"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-    </row>
-    <row r="25" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE24" s="14"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+    </row>
+    <row r="25" customFormat="1" ht="16.5" spans="1:37">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -5567,14 +5574,14 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
-      <c r="AE25" s="31"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-    </row>
-    <row r="26" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE25" s="14"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+    </row>
+    <row r="26" customFormat="1" ht="16.5" spans="1:37">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -5607,14 +5614,14 @@
       <c r="AB26" s="19"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
-      <c r="AE26" s="31"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-    </row>
-    <row r="27" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE26" s="14"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+    </row>
+    <row r="27" customFormat="1" ht="16.5" spans="1:37">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -5647,14 +5654,14 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
-      <c r="AE27" s="31"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-    </row>
-    <row r="28" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE27" s="14"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+    </row>
+    <row r="28" customFormat="1" ht="16.5" spans="1:37">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -5687,14 +5694,14 @@
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
-      <c r="AE28" s="31"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-    </row>
-    <row r="29" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE28" s="14"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+    </row>
+    <row r="29" customFormat="1" ht="16.5" spans="1:37">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -5727,16 +5734,16 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
-      <c r="AE29" s="31"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-    </row>
-    <row r="30" customFormat="1" ht="15.6" spans="1:37">
+      <c r="AE29" s="14"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+    </row>
+    <row r="30" customFormat="1" ht="16.5" spans="1:37">
       <c r="A30" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5767,12 +5774,12 @@
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
-      <c r="AE30" s="31"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
+      <c r="AE30" s="14"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
